--- a/public/sample_uploads/fund_ratios/capital_remittance_payments.xlsx
+++ b/public/sample_uploads/fund_ratios/capital_remittance_payments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{06C46ED1-7E65-43F4-88D0-B91229BA8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA0A1D2-2169-43C5-B843-88920B21E593}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{06C46ED1-7E65-43F4-88D0-B91229BA8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B1D0DB4-33A8-44BF-8AE5-F642D99CF42C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CapitalRemittance!$A$1:$M$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CapitalRemittance!$A$1:$M$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Investor *</t>
   </si>
@@ -412,13 +412,13 @@
     <t>Amount (Fund Currency)*</t>
   </si>
   <si>
-    <t>TSTF1</t>
-  </si>
-  <si>
-    <t>TSTF2</t>
-  </si>
-  <si>
-    <t>Demo Fund 1</t>
+    <t>TSTF3</t>
+  </si>
+  <si>
+    <t>TSTF4</t>
+  </si>
+  <si>
+    <t>Demo Fund 2</t>
   </si>
   <si>
     <t>Call 1</t>
@@ -427,46 +427,13 @@
     <t>Call 2</t>
   </si>
   <si>
-    <t>TSTF11</t>
-  </si>
-  <si>
-    <t>TSTF12</t>
-  </si>
-  <si>
-    <t>TSTF13</t>
-  </si>
-  <si>
-    <t>TSTF14</t>
-  </si>
-  <si>
-    <t>TSTF15</t>
-  </si>
-  <si>
-    <t>TSTF16</t>
-  </si>
-  <si>
-    <t>TSTF17</t>
-  </si>
-  <si>
-    <t>TSTF18</t>
-  </si>
-  <si>
-    <t>TSTF19</t>
-  </si>
-  <si>
-    <t>TSTF110</t>
-  </si>
-  <si>
-    <t>TSTF7</t>
-  </si>
-  <si>
-    <t>TSTF8</t>
-  </si>
-  <si>
-    <t>TSTF9</t>
-  </si>
-  <si>
-    <t>TSTF10</t>
+    <t>TSTF21</t>
+  </si>
+  <si>
+    <t>TSTF22</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -568,10 +535,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -912,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:XFD17 A29:XFD33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -923,7 +890,7 @@
     <col min="1" max="1" width="8.625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" customWidth="1"/>
     <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
@@ -946,7 +913,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -987,8 +954,8 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8">
-        <v>20000000</v>
+      <c r="D2" s="6">
+        <v>50000000</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -1000,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="4">
-        <v>45021</v>
+        <v>45026</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>12</v>
@@ -1008,7 +975,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -1016,20 +983,23 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8">
-        <v>30000000</v>
+      <c r="D3" s="6">
+        <v>650000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="8">
+        <v>52000000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="4">
-        <v>45026</v>
+        <v>45017</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>12</v>
@@ -1045,11 +1015,14 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8">
-        <v>100000000</v>
+      <c r="D4" s="6">
+        <v>600000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="8">
+        <v>48600000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -1065,584 +1038,102 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>31</v>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8">
-        <v>50000000</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>100000000</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6"/>
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4">
-        <f>K4-1</f>
-        <v>45025</v>
+        <v>45209</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
-        <v>100000000</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1500000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="8">
+        <v>121500150</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="K6" s="4">
-        <f>K5-1</f>
-        <v>45024</v>
+        <v>45200</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8">
-        <v>50000000</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1000000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="F7" s="8">
+        <v>82000000</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" s="4">
-        <f>K6-1</f>
-        <v>45023</v>
+        <v>45209</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="4">
-        <f>K7-1</f>
-        <v>45022</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="4">
-        <f>K8-1</f>
-        <v>45021</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="4">
-        <v>45026</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="4">
-        <v>45026</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="4">
-        <v>45026</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="4">
-        <v>45204</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8">
-        <v>50000000</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="4">
-        <v>45209</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8">
-        <v>200000000</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="4">
-        <v>45206</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="4">
-        <v>45209</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8">
-        <v>200000000</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="4">
-        <f>K16-1</f>
-        <v>45208</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="4">
-        <f>K17-1</f>
-        <v>45207</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8">
-        <v>200000000</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="4">
-        <f>K18-1</f>
-        <v>45206</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="4">
-        <f>K19-1</f>
-        <v>45205</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8">
-        <v>200000000</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="4">
-        <v>45209</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="4">
-        <v>45209</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8">
-        <v>200000000</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="4">
-        <v>45209</v>
-      </c>
-      <c r="M23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G195 M2:M195" xr:uid="{F8557951-1A91-4529-BF37-BF1B184BD42D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G179 M2:M179" xr:uid="{F8557951-1A91-4529-BF37-BF1B184BD42D}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
